--- a/xlsx/弗雷斯诺_intext.xlsx
+++ b/xlsx/弗雷斯诺_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>弗雷斯诺</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加州行政區劃</t>
+    <t>加州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AF%BA%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%BF-%E8%AE%AE%E4%BC%9A%E5%88%B6%E6%94%BF%E5%BA%9C</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>市經理</t>
+    <t>市经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%B3%87%E6%96%99%E8%99%95%E7%90%86%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>聯邦資料處理標準</t>
+    <t>联邦资料处理标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%90%8D%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -185,9 +185,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%B0%B7%E5%9C%B0</t>
   </si>
   <si>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口普查局</t>
+    <t>美国人口普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E5%A1%9E%E7%B1%B3%E8%92%82%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>紅杉國家公園</t>
+    <t>红杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海氣候</t>
+    <t>地中海气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AF%BA%E4%BC%98%E8%83%9C%E7%BE%8E%E5%9C%B0%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fresno_Chandler_Executive_Airport</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AF%BA%E5%88%86%E6%A0%A1</t>
@@ -275,19 +272,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>弗雷斯諾太平洋大學</t>
+    <t>弗雷斯诺太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>國立大學 (加利福尼亞州)</t>
+    <t>国立大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%88%8A%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學舊金山分校</t>
+    <t>加利福尼亚大学旧金山分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖華金谷學院</t>
+    <t>圣华金谷学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美洲城市大學</t>
+    <t>美洲城市大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%B5%E8%8A%B1%E7%B1%BD</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%8B%89%E6%96%AF_(%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6)</t>
   </si>
   <si>
-    <t>塔拉斯 (哈薩克斯坦)</t>
+    <t>塔拉斯 (哈萨克斯坦)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%A6%AC%E7%9C%81</t>
   </si>
   <si>
-    <t>薩馬省</t>
+    <t>萨马省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B0%91%E9%83%BD%E6%B4%9B%E7%9C%81</t>
   </si>
   <si>
-    <t>東民都洛省</t>
+    <t>东民都洛省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -485,19 +482,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -683,25 +680,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -713,31 +710,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -857,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -941,19 +938,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -971,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -1097,13 +1094,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -1133,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1145,27 +1142,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%BB%E8%A6%81%E9%83%BD%E5%B8%82%E4%BA%BA%E5%8F%A3%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>美國主要都市人口順位</t>
+    <t>美国主要都市人口顺位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
   </si>
   <si>
@@ -1175,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
+    <t>圣安东尼奥 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%BF%AD%E6%88%88_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1217,25 +1211,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -1247,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅萊那州)</t>
+    <t>夏洛特 (北卡罗莱那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -1259,31 +1250,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1307,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易斯維爾</t>
+    <t>路易斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA</t>
@@ -1319,19 +1310,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -1343,49 +1334,46 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>佛雷斯諾</t>
+    <t>佛雷斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (密蘇里州)</t>
+    <t>堪萨斯城 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維吉尼亞海灘</t>
+    <t>维吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1403,19 +1391,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E9%98%BF%E6%B3%A2%E5%88%A9%E6%96%AF</t>
@@ -1439,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2617,7 +2605,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
         <v>7</v>
@@ -2672,10 +2660,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -2701,10 +2689,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2730,10 +2718,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2759,10 +2747,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2788,10 +2776,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2817,10 +2805,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2846,10 +2834,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2875,10 +2863,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -2904,10 +2892,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2933,10 +2921,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2962,10 +2950,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2991,10 +2979,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3020,10 +3008,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3049,10 +3037,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3078,10 +3066,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3107,10 +3095,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3136,10 +3124,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3165,10 +3153,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3194,10 +3182,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3223,10 +3211,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3252,10 +3240,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3281,10 +3269,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3310,10 +3298,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3339,10 +3327,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3368,10 +3356,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3397,10 +3385,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3426,10 +3414,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3455,10 +3443,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3484,10 +3472,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3513,10 +3501,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3542,10 +3530,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3571,10 +3559,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3600,10 +3588,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3629,10 +3617,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3658,10 +3646,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3687,10 +3675,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3716,10 +3704,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3745,10 +3733,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3774,10 +3762,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3803,10 +3791,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3832,10 +3820,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3861,10 +3849,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
         <v>69</v>
-      </c>
-      <c r="F72" t="s">
-        <v>70</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3919,10 +3907,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3948,10 +3936,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3977,10 +3965,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4006,10 +3994,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4035,10 +4023,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -4093,10 +4081,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4122,10 +4110,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4151,10 +4139,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4209,10 +4197,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>8</v>
@@ -4238,10 +4226,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4267,10 +4255,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4296,10 +4284,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4325,10 +4313,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4354,10 +4342,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4383,10 +4371,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4412,10 +4400,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4441,10 +4429,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4470,10 +4458,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4499,10 +4487,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>34</v>
@@ -4528,10 +4516,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4557,10 +4545,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4586,10 +4574,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4615,10 +4603,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4644,10 +4632,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4673,10 +4661,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4702,10 +4690,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4731,10 +4719,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4760,10 +4748,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4789,10 +4777,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4818,10 +4806,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4847,10 +4835,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4876,10 +4864,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4905,10 +4893,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4934,10 +4922,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4963,10 +4951,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4992,10 +4980,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5021,10 +5009,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5050,10 +5038,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5079,10 +5067,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5108,10 +5096,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5137,10 +5125,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5166,10 +5154,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5195,10 +5183,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5224,10 +5212,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5253,10 +5241,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5282,10 +5270,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5311,10 +5299,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5340,10 +5328,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5369,10 +5357,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5398,10 +5386,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -5427,10 +5415,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5456,10 +5444,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5485,10 +5473,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5514,10 +5502,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5543,10 +5531,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5572,10 +5560,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5601,10 +5589,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5630,10 +5618,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5659,10 +5647,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5688,10 +5676,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5717,10 +5705,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5746,10 +5734,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5775,10 +5763,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5804,10 +5792,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5833,10 +5821,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5862,10 +5850,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5891,10 +5879,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5920,10 +5908,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5949,10 +5937,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5978,10 +5966,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6007,10 +5995,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6036,10 +6024,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6065,10 +6053,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6094,10 +6082,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6123,10 +6111,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6152,10 +6140,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6181,10 +6169,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6210,10 +6198,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6239,10 +6227,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6268,10 +6256,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6297,10 +6285,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6326,10 +6314,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6355,10 +6343,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6384,10 +6372,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6413,10 +6401,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>228</v>
+      </c>
+      <c r="F159" t="s">
         <v>229</v>
-      </c>
-      <c r="F159" t="s">
-        <v>230</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6442,10 +6430,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6471,10 +6459,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6500,10 +6488,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6529,10 +6517,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6558,10 +6546,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6587,10 +6575,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6616,10 +6604,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6645,10 +6633,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6674,10 +6662,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6703,10 +6691,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6732,10 +6720,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6761,10 +6749,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6790,10 +6778,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6819,10 +6807,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6848,10 +6836,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6877,10 +6865,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6906,10 +6894,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6935,10 +6923,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6964,10 +6952,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6993,10 +6981,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7022,10 +7010,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7051,10 +7039,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7080,10 +7068,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7109,10 +7097,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
-      </c>
-      <c r="F183" t="s">
-        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7138,10 +7126,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" t="s">
         <v>357</v>
-      </c>
-      <c r="F184" t="s">
-        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7167,10 +7155,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" t="s">
         <v>359</v>
-      </c>
-      <c r="F185" t="s">
-        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7196,10 +7184,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
-      </c>
-      <c r="F186" t="s">
-        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7225,10 +7213,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
-      </c>
-      <c r="F187" t="s">
-        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7254,10 +7242,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7283,10 +7271,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" t="s">
         <v>367</v>
-      </c>
-      <c r="F189" t="s">
-        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7312,10 +7300,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>368</v>
+      </c>
+      <c r="F190" t="s">
         <v>369</v>
-      </c>
-      <c r="F190" t="s">
-        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7341,10 +7329,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>370</v>
+      </c>
+      <c r="F191" t="s">
         <v>371</v>
-      </c>
-      <c r="F191" t="s">
-        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7370,10 +7358,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>372</v>
+      </c>
+      <c r="F192" t="s">
         <v>373</v>
-      </c>
-      <c r="F192" t="s">
-        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7399,10 +7387,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" t="s">
         <v>375</v>
-      </c>
-      <c r="F193" t="s">
-        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7428,10 +7416,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F194" t="s">
         <v>377</v>
-      </c>
-      <c r="F194" t="s">
-        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7457,10 +7445,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
         <v>379</v>
-      </c>
-      <c r="F195" t="s">
-        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7486,10 +7474,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>65</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7515,10 +7503,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7544,10 +7532,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7573,10 +7561,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7602,10 +7590,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7631,10 +7619,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7660,10 +7648,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7689,10 +7677,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7718,10 +7706,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>310</v>
+      </c>
+      <c r="F204" t="s">
         <v>311</v>
-      </c>
-      <c r="F204" t="s">
-        <v>312</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7747,10 +7735,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7776,10 +7764,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7805,10 +7793,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>229</v>
       </c>
       <c r="G207" t="n">
         <v>6</v>
@@ -7834,10 +7822,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7863,10 +7851,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7892,10 +7880,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7921,10 +7909,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7950,10 +7938,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7979,10 +7967,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8008,10 +7996,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8037,10 +8025,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8066,10 +8054,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8095,10 +8083,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8124,10 +8112,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8153,10 +8141,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8182,10 +8170,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8211,10 +8199,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8240,10 +8228,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8269,10 +8257,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8298,10 +8286,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8327,10 +8315,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8356,10 +8344,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8385,10 +8373,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8414,10 +8402,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8443,10 +8431,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>150</v>
+      </c>
+      <c r="F229" t="s">
         <v>151</v>
-      </c>
-      <c r="F229" t="s">
-        <v>152</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8472,10 +8460,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>277</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8501,10 +8489,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8530,10 +8518,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8559,10 +8547,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8588,10 +8576,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8617,10 +8605,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8646,10 +8634,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8675,10 +8663,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8704,10 +8692,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8733,10 +8721,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8762,10 +8750,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8791,10 +8779,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>284</v>
+      </c>
+      <c r="F241" t="s">
         <v>285</v>
-      </c>
-      <c r="F241" t="s">
-        <v>286</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8820,10 +8808,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8849,10 +8837,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8878,10 +8866,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8907,10 +8895,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -8936,10 +8924,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8965,10 +8953,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8994,10 +8982,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9023,10 +9011,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
